--- a/artfynd/A 35587-2023.xlsx
+++ b/artfynd/A 35587-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,6 +922,118 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112079249</v>
+      </c>
+      <c r="B4" t="n">
+        <v>89646</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fläckporing</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Anthoporia albobrunnea</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>613881.387574179</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7034405.898391382</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 35587-2023.xlsx
+++ b/artfynd/A 35587-2023.xlsx
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>613881.387574179</v>
+        <v>613881</v>
       </c>
       <c r="R4" t="n">
-        <v>7034405.898391382</v>
+        <v>7034406</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -997,19 +997,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 35587-2023.xlsx
+++ b/artfynd/A 35587-2023.xlsx
@@ -927,7 +927,7 @@
         <v>112079249</v>
       </c>
       <c r="B4" t="n">
-        <v>89646</v>
+        <v>89780</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>

--- a/artfynd/A 35587-2023.xlsx
+++ b/artfynd/A 35587-2023.xlsx
@@ -927,7 +927,7 @@
         <v>112079249</v>
       </c>
       <c r="B4" t="n">
-        <v>89780</v>
+        <v>89794</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
